--- a/biology/Botanique/Écozone_afrotropicale___plantes_à_graines_par_nom_scientifique/Écozone_afrotropicale___plantes_à_graines_par_nom_scientifique.xlsx
+++ b/biology/Botanique/Écozone_afrotropicale___plantes_à_graines_par_nom_scientifique/Écozone_afrotropicale___plantes_à_graines_par_nom_scientifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">à compléter par ordre alphabétique
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aci
-Acidanthera synonyme à Gladiolus
-Acidanthera bicolor - glaïeul d'Abyssinie, voir Gladiolus murielae
-Acm
-Acmella - Asteraceae
-Acmella oleracea - Brède mafane
-Acr
-Acrodon - Aizoacées
+          <t>Aci</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Acidanthera synonyme à Gladiolus
+Acidanthera bicolor - glaïeul d'Abyssinie, voir Gladiolus murielae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Acm</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acmella - Asteraceae
+Acmella oleracea - Brède mafane</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acrodon - Aizoacées
 Acrodon bellidiflorus
 Acrodon parvifolius
 Acrodon quarcicola
@@ -528,34 +613,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ad</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ada
-Adansonia - Bombacacées
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ada</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Adansonia - Bombacacées
 Adansonia digitata - Baobab africain
 Adansonia gibbosa - Baobab australien
 Adansonia grandidieri
@@ -567,34 +657,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Aer
-Aerangis - Orchidacées
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aerangis - Orchidacées
 Aerangis articulata
 Aerangis citrata
 Aerangis ellisii
@@ -608,34 +703,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alo
-Alocasia - fam. Aracées (voir aussi zone paléarctique)
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alocasia - fam. Aracées (voir aussi zone paléarctique)
 Alocasia calidora - Oreille d'éléphant
 Aloinopsis- Aizoacées
 Aloinopsis acuta
@@ -651,75 +751,119 @@
 Aloinopsis schooneesii
 Aloinopsis setifera
 Aloinopsis spathulata
-Aloinopsis villetii
-Alt
-Alternanthera - Amaranthacées
+Aloinopsis villetii</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Alt</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Alternanthera - Amaranthacées
 Alternanthera brasiliana
 Alternanthera pungens - Brède emballage à piquant
 Alternanthera sessilis - Brède emballage</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Am</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ama
-Amaranthus - Amaranthacées
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ama</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Amaranthus - Amaranthacées
 Amaranthus dubius - Brède malabar</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ang
-Angraecum - Orchidacées
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ang</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Angraecum - Orchidacées
 Angraecum distichum
 Angraecum eburneum
 Angraecum ramosum
@@ -727,97 +871,109 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Ap</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Apt
-Aptenia- fam. Aizoacées
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Apt</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Aptenia- fam. Aizoacées
 Aptenia cordifolia - Ficoïde à feuilles en cœur
 Aptenia lancifolia</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Az</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Aza
-Azadirachta - fam. Méliacées - (arbre)
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Aza</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Azadirachta - fam. Méliacées - (arbre)
 Azadarichta excelsa
 Azadirachta indica ou Melia azedarach - « Margousier » ou « Lila des Indes » ou « Neem »</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Ca</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Cananga - fam. Annonacées
 Cananga odorata - Ylang-ylang
@@ -826,62 +982,66 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Cl</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Cleome - fam. Capparidacées
 Cleome gynandra - Brède caya</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Co</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Conophytum - fam. Aizoacées
 Conophytum achabense
@@ -1038,31 +1198,33 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Epidendrum - fam. Orchidacées
 Epidendrum ibaguense
@@ -1074,31 +1236,33 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>La</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Lagenaria - Cucurbitacées
 Lagenaria siceraria - Gourde
@@ -1300,61 +1464,65 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Musa - Musacées</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Pleiospilos - Aizoacées
 Pleiospilos nobilis
@@ -1362,31 +1530,33 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum - Solanacées
 Solanum americanum - Brèdes morelle
@@ -1394,31 +1564,33 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Tamarindus - Fabacées
 Tamarindus indica - Tamarinier
@@ -1427,31 +1599,33 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_afrotropicale_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_afrotropicale_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Widdringtonia - Cupressaceae
 Widdringtonia cedarbergensis
